--- a/data/trans_orig/P1433-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Edad-trans_orig.xlsx
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5558</v>
+        <v>6112</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0015919513898598</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008089870373389206</v>
+        <v>0.008896193875576129</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7171</v>
+        <v>6160</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0008431152231649202</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005527629362054099</v>
+        <v>0.004748017841306944</v>
       </c>
     </row>
     <row r="8">
@@ -974,7 +974,7 @@
         <v>685993</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>681529</v>
+        <v>680975</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>687087</v>
@@ -983,7 +983,7 @@
         <v>0.9984080486101402</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9919101296266107</v>
+        <v>0.9911038061244236</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>1296248</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1290171</v>
+        <v>1291182</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1297342</v>
@@ -1017,7 +1017,7 @@
         <v>0.9991568847768351</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.994472370637945</v>
+        <v>0.9952519821586924</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1112,19 +1112,19 @@
         <v>3675</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9272</v>
+        <v>9178</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005389266743012513</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001379233636267287</v>
+        <v>0.001372527180848399</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01359825666046819</v>
+        <v>0.01346001797618876</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7383</v>
+        <v>7456</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002971576596983708</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01040451816153805</v>
+        <v>0.01050733195255381</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1154,19 +1154,19 @@
         <v>5783</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2720</v>
+        <v>2089</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12014</v>
+        <v>12524</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004156346537244061</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001955148652109948</v>
+        <v>0.001501396676438081</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.008634097325725098</v>
+        <v>0.009000523287270332</v>
       </c>
     </row>
     <row r="11">
@@ -1183,19 +1183,19 @@
         <v>678188</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>672591</v>
+        <v>672685</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>680923</v>
+        <v>680927</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9946107332569875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9864017433395319</v>
+        <v>0.9865399820238113</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9986207663637326</v>
+        <v>0.9986274728191517</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>664</v>
@@ -1204,7 +1204,7 @@
         <v>707465</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>702191</v>
+        <v>702118</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>709574</v>
@@ -1213,7 +1213,7 @@
         <v>0.9970284234030163</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9895954818384619</v>
+        <v>0.9894926680474462</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1225,19 +1225,19 @@
         <v>1385654</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1379423</v>
+        <v>1378913</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1388717</v>
+        <v>1389348</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9958436534627559</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.991365902674275</v>
+        <v>0.9909994767127296</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.99804485134789</v>
+        <v>0.9984986033235619</v>
       </c>
     </row>
     <row r="12">
@@ -1342,19 +1342,19 @@
         <v>2912</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7796</v>
+        <v>8859</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004741386028404473</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001553577436917714</v>
+        <v>0.001555164669701088</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01269084592769706</v>
+        <v>0.01442157578990085</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1363,19 +1363,19 @@
         <v>2912</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7879</v>
+        <v>8657</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002370012356022709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0007782557560010439</v>
+        <v>0.0007791238012449817</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.006411483539406702</v>
+        <v>0.007044462655141795</v>
       </c>
     </row>
     <row r="14">
@@ -1405,19 +1405,19 @@
         <v>611352</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>606468</v>
+        <v>605405</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>613310</v>
+        <v>613309</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9952586139715955</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.987309154072303</v>
+        <v>0.985578424210099</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9984464225630824</v>
+        <v>0.9984448353302989</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1083</v>
@@ -1426,19 +1426,19 @@
         <v>1225968</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1221001</v>
+        <v>1220223</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1227924</v>
+        <v>1227923</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9976299876439773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9935885164605933</v>
+        <v>0.9929555373448582</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9992217442439989</v>
+        <v>0.999220876198755</v>
       </c>
     </row>
     <row r="15">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5908</v>
+        <v>5231</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002332532751318265</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01319349888501046</v>
+        <v>0.01168218030443072</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5230</v>
+        <v>6288</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00119069020242971</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.005961853534497757</v>
+        <v>0.007167766848678809</v>
       </c>
     </row>
     <row r="17">
@@ -1606,7 +1606,7 @@
         <v>446755</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>441892</v>
+        <v>442569</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>447800</v>
@@ -1615,7 +1615,7 @@
         <v>0.9976674672486817</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.98680650111499</v>
+        <v>0.9883178196955693</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>876184</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>871999</v>
+        <v>870941</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>877229</v>
@@ -1636,7 +1636,7 @@
         <v>0.9988093097975703</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9940381464655023</v>
+        <v>0.9928322331513212</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4217</v>
+        <v>5455</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002548615668098581</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.011911609778228</v>
+        <v>0.01541034191670183</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4558</v>
+        <v>4532</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001359180430112046</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.006866242988782958</v>
+        <v>0.006826867308124196</v>
       </c>
     </row>
     <row r="20">
@@ -1807,7 +1807,7 @@
         <v>353094</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>349779</v>
+        <v>348541</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>353996</v>
@@ -1816,7 +1816,7 @@
         <v>0.9974513843319014</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9880883902217724</v>
+        <v>0.9845896580832981</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1828,7 +1828,7 @@
         <v>662880</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>659224</v>
+        <v>659250</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>663782</v>
@@ -1837,7 +1837,7 @@
         <v>0.9986408195698879</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.993133757011217</v>
+        <v>0.9931731326918761</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1945,19 +1945,19 @@
         <v>3338</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9045</v>
+        <v>8896</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.008606988714390916</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002790271896823236</v>
+        <v>0.002803783702713556</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02332031602135634</v>
+        <v>0.02293595292108368</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -1966,19 +1966,19 @@
         <v>3338</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8976</v>
+        <v>8836</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.005234883028493184</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001695611745121704</v>
+        <v>0.001689294489839623</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01407590439610072</v>
+        <v>0.0138558331325569</v>
       </c>
     </row>
     <row r="23">
@@ -2008,19 +2008,19 @@
         <v>384532</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>378825</v>
+        <v>378974</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>386788</v>
+        <v>386782</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9913930112856091</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9766796839786437</v>
+        <v>0.9770640470789164</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9972097281031768</v>
+        <v>0.9971962162972865</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>568</v>
@@ -2029,19 +2029,19 @@
         <v>634383</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>628745</v>
+        <v>628885</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>636640</v>
+        <v>636644</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9947651169715068</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9859240956038994</v>
+        <v>0.9861441668674432</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9983043882548782</v>
+        <v>0.9983107055101603</v>
       </c>
     </row>
     <row r="24">
@@ -2133,19 +2133,19 @@
         <v>4769</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1784</v>
+        <v>1830</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10412</v>
+        <v>10812</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001391554251153087</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0005205949712133051</v>
+        <v>0.0005341168774881757</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.003038450449965317</v>
+        <v>0.003155040617709252</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -2154,19 +2154,19 @@
         <v>10306</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5215</v>
+        <v>5183</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18457</v>
+        <v>17893</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002900659454108825</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001467888257945031</v>
+        <v>0.001458877831587937</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.005194804685068055</v>
+        <v>0.005035892604504448</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -2175,19 +2175,19 @@
         <v>15075</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8907</v>
+        <v>9131</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24986</v>
+        <v>25996</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002159754869505297</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001276114822732967</v>
+        <v>0.001308233099389859</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.003579690352300463</v>
+        <v>0.003724432894865298</v>
       </c>
     </row>
     <row r="26">
@@ -2204,19 +2204,19 @@
         <v>3422010</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3416367</v>
+        <v>3415967</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3424995</v>
+        <v>3424949</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9986084457488469</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9969615495500347</v>
+        <v>0.9968449593822908</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9994794050287867</v>
+        <v>0.9994658831225118</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3284</v>
@@ -2225,19 +2225,19 @@
         <v>3542720</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3534569</v>
+        <v>3535133</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3547811</v>
+        <v>3547843</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9970993405458912</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9948051953149319</v>
+        <v>0.9949641073954956</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9985321117420549</v>
+        <v>0.9985411221684121</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6488</v>
@@ -2246,19 +2246,19 @@
         <v>6964730</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6954819</v>
+        <v>6953809</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6970898</v>
+        <v>6970674</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9978402451304947</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9964203096476996</v>
+        <v>0.9962755671051349</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.998723885177267</v>
+        <v>0.9986917669006102</v>
       </c>
     </row>
     <row r="27">
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4540</v>
+        <v>5386</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001602019816352611</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.00678506989131223</v>
+        <v>0.008050246992139288</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5383</v>
+        <v>5389</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0008056519184810945</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004045913836864332</v>
+        <v>0.004050097912062435</v>
       </c>
     </row>
     <row r="11">
@@ -2994,7 +2994,7 @@
         <v>668025</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>664557</v>
+        <v>663711</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>669097</v>
@@ -3003,7 +3003,7 @@
         <v>0.9983979801836473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9932149301086898</v>
+        <v>0.9919497530078607</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>1329411</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1325100</v>
+        <v>1325094</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>1330483</v>
@@ -3037,7 +3037,7 @@
         <v>0.9991943480815189</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9959540861631356</v>
+        <v>0.9959499020879375</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5773</v>
+        <v>5960</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001571172610827816</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.008893620242837593</v>
+        <v>0.009182356663653267</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5117</v>
+        <v>5127</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0007874233932102061</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.003951022957620515</v>
+        <v>0.003958960846648464</v>
       </c>
     </row>
     <row r="14">
@@ -3208,7 +3208,7 @@
         <v>648057</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>643304</v>
+        <v>643117</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>649077</v>
@@ -3217,7 +3217,7 @@
         <v>0.9984288273891722</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9911063797571632</v>
+        <v>0.9908176433363494</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3229,7 +3229,7 @@
         <v>1294105</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1290008</v>
+        <v>1289998</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>1295125</v>
@@ -3238,7 +3238,7 @@
         <v>0.9992125766067897</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9960489770423794</v>
+        <v>0.9960410391533516</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5776</v>
+        <v>5924</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002700269148181908</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01529082241884287</v>
+        <v>0.01568143068727523</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5960</v>
+        <v>5131</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001432482149246742</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.008369087822206448</v>
+        <v>0.007205367051158219</v>
       </c>
     </row>
     <row r="20">
@@ -3578,7 +3578,7 @@
         <v>376742</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>371986</v>
+        <v>371838</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>377762</v>
@@ -3587,7 +3587,7 @@
         <v>0.9972997308518181</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9847091775811578</v>
+        <v>0.9843185693127253</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -3599,7 +3599,7 @@
         <v>711072</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>706132</v>
+        <v>706961</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>712092</v>
@@ -3608,7 +3608,7 @@
         <v>0.9985675178507533</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9916309121777932</v>
+        <v>0.9927946329488418</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6291</v>
+        <v>6256</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007012218319415319</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02447913305647147</v>
+        <v>0.02434447287891883</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5482</v>
+        <v>6306</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002742265040335196</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.008341881047575285</v>
+        <v>0.009596370070379712</v>
       </c>
     </row>
     <row r="23">
@@ -3766,7 +3766,7 @@
         <v>255196</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>250707</v>
+        <v>250742</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>256998</v>
@@ -3775,7 +3775,7 @@
         <v>0.9929877816805847</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9755208669435285</v>
+        <v>0.9756555271210811</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -3800,7 +3800,7 @@
         <v>655365</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>651685</v>
+        <v>650861</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>657167</v>
@@ -3809,7 +3809,7 @@
         <v>0.9972577349596649</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9916581189524247</v>
+        <v>0.9904036299296203</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -3904,19 +3904,19 @@
         <v>2874</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7862</v>
+        <v>7959</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0008467105045476443</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0</v>
+        <v>0.0002614126325114895</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.002316292141647879</v>
+        <v>0.002344656561538461</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -3928,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6947</v>
+        <v>7142</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0005754963787181816</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.001959908057820836</v>
+        <v>0.002014825371844866</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -3946,19 +3946,19 @@
         <v>4914</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10176</v>
+        <v>10866</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0007081682398282754</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0002751256933122218</v>
+        <v>0.0002746808990325804</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.001466581083363248</v>
+        <v>0.001566026257973857</v>
       </c>
     </row>
     <row r="26">
@@ -3975,19 +3975,19 @@
         <v>3391476</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3386488</v>
+        <v>3386391</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3394350</v>
+        <v>3393463</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9991532894954523</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9976837078583521</v>
+        <v>0.9976553434384621</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1</v>
+        <v>0.9997385873674886</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3336</v>
@@ -3996,7 +3996,7 @@
         <v>3542502</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3537595</v>
+        <v>3537400</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>3544542</v>
@@ -4005,7 +4005,7 @@
         <v>0.9994245036212818</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9980400919421771</v>
+        <v>0.9979851746281551</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -4017,19 +4017,19 @@
         <v>6933978</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6928716</v>
+        <v>6928026</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6936983</v>
+        <v>6936986</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9992918317601718</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9985334189166369</v>
+        <v>0.9984339737420264</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9997248743066878</v>
+        <v>0.9997253191009674</v>
       </c>
     </row>
     <row r="27">
